--- a/biology/Botanique/Blechum/Blechum.xlsx
+++ b/biology/Botanique/Blechum/Blechum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blechum est un genre de la famille des Acanthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1] 8 septembre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 8 septembre 2012
 Blechum angustifolium (Sw.) R.Br. , 1810
 Blechum angustius Nees , 1847
 Blechum blechioides (Sw.) Hitchc. , 1893
@@ -555,9 +569,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1] 9 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 9 octobre 2012
 Blechum angustifolium (Sw.) Sm. = Ruellia angustifolia Sw. , 1788
 Blechum anisophyllum Juss. = Phaulopsis imbricata (Forssk.) Sweet , 1826
 Blechum blechum (L.) Millsp. = Blechum pyramidatum (Lam.) Urb. , 1918
@@ -609,9 +625,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1] 9 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 9 octobre 2012
 Blechum brasiliense Mart. ex Nees
 Blechum dariense Lindau
 Blechum hamatum Klotzsch</t>
